--- a/Phase_One/docs/Gantt_Chart_Data_One_Iteration.xlsx
+++ b/Phase_One/docs/Gantt_Chart_Data_One_Iteration.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t xml:space="preserve">FCFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJF</t>
   </si>
   <si>
     <t xml:space="preserve">Pi</t>
@@ -75,11 +78,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -95,6 +99,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,15 +159,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -233,7 +248,35 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>FCFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -269,11 +312,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -377,11 +425,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -485,11 +538,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -593,11 +651,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -673,17 +736,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="90509473"/>
-        <c:axId val="63302973"/>
+        <c:axId val="75958986"/>
+        <c:axId val="78387033"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90509473"/>
+        <c:axId val="75958986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -700,12 +763,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63302973"/>
+        <c:crossAx val="78387033"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63302973"/>
+        <c:axId val="78387033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +795,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -745,12 +812,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90509473"/>
+        <c:crossAx val="75958986"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -778,7 +849,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -803,7 +878,35 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>SJF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -839,11 +942,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -947,11 +1055,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1055,11 +1168,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1163,11 +1281,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1243,17 +1366,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="49811146"/>
-        <c:axId val="56059888"/>
+        <c:axId val="68402040"/>
+        <c:axId val="84972370"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49811146"/>
+        <c:axId val="68402040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1270,12 +1393,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56059888"/>
+        <c:crossAx val="84972370"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1283,7 +1410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56059888"/>
+        <c:axId val="84972370"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1425,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1315,12 +1442,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49811146"/>
+        <c:crossAx val="68402040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1348,7 +1479,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -1379,9 +1514,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>175320</xdr:colOff>
+      <xdr:colOff>174960</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1390,7 +1525,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="100080" y="1950840"/>
-        <a:ext cx="5764680" cy="3238560"/>
+        <a:ext cx="5764320" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1409,9 +1544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>675360</xdr:colOff>
+      <xdr:colOff>675000</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1420,7 +1555,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6289920" y="1938240"/>
-        <a:ext cx="5764680" cy="3238920"/>
+        <a:ext cx="5764320" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1547,7 +1682,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1564,7 +1699,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1573,39 +1708,39 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>7</v>
@@ -1620,7 +1755,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>14</v>
@@ -1637,7 +1772,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>12</v>
@@ -1652,7 +1787,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>13</v>
@@ -1669,7 +1804,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>13</v>
@@ -1684,7 +1819,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>14</v>
@@ -1701,7 +1836,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>14</v>
@@ -1716,7 +1851,7 @@
         <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>14</v>
@@ -1733,7 +1868,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>14</v>
@@ -1748,7 +1883,7 @@
         <v>53</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>12</v>
@@ -1765,7 +1900,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>14</v>
@@ -1780,7 +1915,7 @@
         <v>63</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>18</v>
@@ -1797,7 +1932,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>18</v>
@@ -1812,7 +1947,7 @@
         <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>7</v>
@@ -1829,13 +1964,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
